--- a/image/communicationrequest.xlsx
+++ b/image/communicationrequest.xlsx
@@ -1019,44 +1019,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.50390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.94140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.50390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.1484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.3671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="71.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.0" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/communicationrequest.xlsx
+++ b/image/communicationrequest.xlsx
@@ -440,7 +440,7 @@
     <t>CommunicationRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the proposal or order.</t>
@@ -517,7 +517,7 @@
     <t>CommunicationRequest.priority</t>
   </si>
   <si>
-    <t>Message urgency</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
@@ -777,10 +777,10 @@
 </t>
   </si>
   <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The device, individual, or organization who initiated the request and has responsibility for its activation.</t>
+    <t>Who asks for the information to be shared</t>
+  </si>
+  <si>
+    <t>The device, individual, or organization who asks for the information to be shared.</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -799,7 +799,7 @@
 </t>
   </si>
   <si>
-    <t>Message recipient</t>
+    <t>Who to share the information with</t>
   </si>
   <si>
     <t>The entity (e.g. person, organization, clinical information system, device, group, or care team) which is the intended target of the communication.</t>
@@ -811,14 +811,14 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>CommunicationRequest.sender</t>
+    <t>CommunicationRequest.informationProvider</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
 </t>
   </si>
   <si>
-    <t>Message sender</t>
+    <t>Who should share the information</t>
   </si>
   <si>
     <t>The entity (e.g. person, organization, clinical information system, or device) which is to be the source of the communication.</t>
@@ -1029,7 +1029,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1049,7 +1049,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.0" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>

--- a/image/communicationrequest.xlsx
+++ b/image/communicationrequest.xlsx
@@ -440,7 +440,7 @@
     <t>CommunicationRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the proposal or order.</t>
@@ -517,7 +517,7 @@
     <t>CommunicationRequest.priority</t>
   </si>
   <si>
-    <t>Message urgency</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
@@ -777,10 +777,10 @@
 </t>
   </si>
   <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The device, individual, or organization who initiated the request and has responsibility for its activation.</t>
+    <t>Who asks for the information to be shared</t>
+  </si>
+  <si>
+    <t>The device, individual, or organization who asks for the information to be shared.</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -799,7 +799,7 @@
 </t>
   </si>
   <si>
-    <t>Message recipient</t>
+    <t>Who to share the information with</t>
   </si>
   <si>
     <t>The entity (e.g. person, organization, clinical information system, device, group, or care team) which is the intended target of the communication.</t>
@@ -811,14 +811,14 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>CommunicationRequest.sender</t>
+    <t>CommunicationRequest.informationProvider</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
 </t>
   </si>
   <si>
-    <t>Message sender</t>
+    <t>Who should share the information</t>
   </si>
   <si>
     <t>The entity (e.g. person, organization, clinical information system, or device) which is to be the source of the communication.</t>
@@ -1019,44 +1019,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.50390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.94140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.1484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.3671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="71.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/communicationrequest.xlsx
+++ b/image/communicationrequest.xlsx
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -478,13 +478,16 @@
     <t>Captures the reason for the current state of the CommunicationRequest.</t>
   </si>
   <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.  [distinct reason codes for different statuses can be enforced using invariants if they are universal bindings].</t>
+    <t>This is generally only used for "exception" statuses such as "on-hold" or "revoked".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
     <t>Codes identifying the reason for the current state of a request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/communication-request-status-reason</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -659,10 +662,6 @@
     <t>CommunicationRequest.payload.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -714,7 +713,9 @@
     <t>The communicated content (or for multi-part communications, one portion of the communication).</t>
   </si>
   <si>
-    <t>When using contentCodeableConcept, the CodeableConcept is what is being communicated and is not a categorization of the content.  If no code is available, contentCodeableConcept.text can be used for non-codified content.</t>
+    <t>The content can be codified or textual.  As an example of codified content, when working with machine generated communications, the payload may be drawn from a finite, terminology defined set of communications, especially for short, status update kinds of communications where more of a natural language approach isn't appropriate.
+If the content isn't codified, contentCodeableConcept.text can be used.  
+When using contentCodeableConcept, the CodeableConcept is what is being communicated and is not a categorization of the content.</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1019,44 +1020,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.0390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.50390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="71.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.90625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="72.1484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2753,7 +2754,7 @@
         <v>150</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -2786,18 +2787,18 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2823,13 +2824,13 @@
         <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2858,10 +2859,10 @@
         <v>149</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -2879,7 +2880,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2897,7 +2898,7 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2931,10 +2932,10 @@
         <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2942,7 +2943,7 @@
         <v>39</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18" t="s" s="2">
         <v>39</v>
@@ -2966,10 +2967,10 @@
         <v>138</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -2987,7 +2988,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3002,10 +3003,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3013,11 +3014,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3036,23 +3037,23 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>39</v>
@@ -3097,7 +3098,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3112,7 +3113,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3149,10 +3150,10 @@
         <v>145</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3182,10 +3183,10 @@
         <v>149</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>39</v>
@@ -3203,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3229,11 +3230,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3252,13 +3253,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3309,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3324,10 +3325,10 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3335,7 +3336,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3361,13 +3362,13 @@
         <v>113</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3417,7 +3418,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3432,10 +3433,10 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -3443,7 +3444,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3466,16 +3467,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3525,7 +3526,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3540,10 +3541,10 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -3551,7 +3552,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3574,13 +3575,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3631,7 +3632,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3643,7 +3644,7 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>39</v>
@@ -3657,7 +3658,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3680,7 +3681,7 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>207</v>
@@ -4524,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4599,7 +4600,7 @@
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
